--- a/Jupyter/Datos.xlsx
+++ b/Jupyter/Datos.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juand\Desktop\Maestría\Tesis\Etapa II\Informe III\Jupyter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33C096E-7245-4268-A876-12EFC7252BA3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEAAFB8-1487-462D-B4CA-717A11F846FC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1688BDA4-468B-44D4-BFCD-DB3D70F902FC}"/>
+    <workbookView xWindow="-4300" yWindow="3180" windowWidth="9150" windowHeight="9540" firstSheet="4" activeTab="4" xr2:uid="{1688BDA4-468B-44D4-BFCD-DB3D70F902FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Cosecha" sheetId="1" r:id="rId1"/>
     <sheet name="Técnicos" sheetId="2" r:id="rId2"/>
-    <sheet name="Personal" sheetId="3" r:id="rId3"/>
-    <sheet name="Indices Ec." sheetId="4" r:id="rId4"/>
+    <sheet name="Rendimiento" sheetId="5" r:id="rId3"/>
+    <sheet name="Personal" sheetId="3" r:id="rId4"/>
+    <sheet name="Indices Ec." sheetId="4" r:id="rId5"/>
+    <sheet name="Inflación nacional" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
   <si>
     <t>Especie</t>
   </si>
   <si>
-    <t>Precio [USD/kg]</t>
-  </si>
-  <si>
     <t>Periodicidad [#Cosechas/año]</t>
   </si>
   <si>
@@ -84,9 +83,6 @@
     <t>Peletizadora de matriz plana</t>
   </si>
   <si>
-    <t>Consumo energético [kW-h]</t>
-  </si>
-  <si>
     <t>Etapa</t>
   </si>
   <si>
@@ -129,21 +125,12 @@
     <t>Parámetro</t>
   </si>
   <si>
-    <t xml:space="preserve">Ingeniero </t>
-  </si>
-  <si>
-    <t>Técnico</t>
-  </si>
-  <si>
     <t>Operario</t>
   </si>
   <si>
     <t>Cantidad de personal</t>
   </si>
   <si>
-    <t>Salario [COP/mensual]</t>
-  </si>
-  <si>
     <t>Interés BM</t>
   </si>
   <si>
@@ -159,20 +146,103 @@
     <t>Impuestos nacionales</t>
   </si>
   <si>
-    <t>Valor [%]</t>
-  </si>
-  <si>
     <t>Cantidad [Plant/Hec]</t>
   </si>
   <si>
     <t>Peso [kg/Planta]</t>
+  </si>
+  <si>
+    <t>Coef. Rendimiento</t>
+  </si>
+  <si>
+    <t>Inversión inicial [COP]*</t>
+  </si>
+  <si>
+    <t>Referencia</t>
+  </si>
+  <si>
+    <t>Granulometría [um]</t>
+  </si>
+  <si>
+    <t>Mordazas</t>
+  </si>
+  <si>
+    <t>Peletizado</t>
+  </si>
+  <si>
+    <t>Martillos</t>
+  </si>
+  <si>
+    <t>Discos</t>
+  </si>
+  <si>
+    <t>N10</t>
+  </si>
+  <si>
+    <t>N20</t>
+  </si>
+  <si>
+    <t>N40</t>
+  </si>
+  <si>
+    <t>N60</t>
+  </si>
+  <si>
+    <t>N100</t>
+  </si>
+  <si>
+    <t>N200</t>
+  </si>
+  <si>
+    <t>Restante</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Potencia [kW]</t>
+  </si>
+  <si>
+    <t>Consumo energético [kW-h]**</t>
+  </si>
+  <si>
+    <t>Pérdida solvente [%]</t>
+  </si>
+  <si>
+    <t>Precio Ext. [USD/kg]</t>
+  </si>
+  <si>
+    <t>Precio carga [COP/carga]</t>
+  </si>
+  <si>
+    <t>Unidad de carga [kg/carga]</t>
+  </si>
+  <si>
+    <t>Lippia Canescens</t>
+  </si>
+  <si>
+    <t>Salario individual [COP/mensual]</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Tarifa kW-h</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +266,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -205,7 +282,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -228,23 +305,265 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Moneda [0]" xfId="1" builtinId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -556,76 +875,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC70963-8C4E-4A9F-82DA-1A2217A1CDC1}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.90625" style="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.90625" style="41" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.54296875" style="41" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.54296875" style="41" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="J1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6">
+        <v>40</v>
+      </c>
+      <c r="C2" s="6">
+        <v>300000</v>
+      </c>
+      <c r="D2" s="2">
+        <v>6000</v>
+      </c>
+      <c r="E2" s="2">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2">
-        <v>24000</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
+        <v>20000</v>
+      </c>
+      <c r="G2" s="2">
         <v>0.15</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="6">
+        <v>60000</v>
+      </c>
+      <c r="J2" s="2">
+        <v>150</v>
+      </c>
+      <c r="K2" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="L2" s="6">
+        <v>101.25</v>
+      </c>
+      <c r="M2" s="2">
+        <f>8*20</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="6">
+        <v>20</v>
+      </c>
+      <c r="C3" s="6">
+        <v>300000</v>
+      </c>
+      <c r="D3" s="2">
+        <v>5800</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="I3" s="6">
+        <v>23900</v>
+      </c>
+      <c r="J3" s="2">
+        <v>150</v>
+      </c>
+      <c r="K3" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="L3" s="6">
+        <v>101.25</v>
+      </c>
+      <c r="M3" s="2">
+        <f>8*20</f>
+        <v>160</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -635,157 +1025,345 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78AC0F7-9757-4BC7-822C-3482E40F7588}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="14">
+        <f>(5000*3467)</f>
+        <v>17335000</v>
+      </c>
+      <c r="D2" s="14">
+        <f>C2*1.1 + C2*0.19</f>
+        <v>22362150</v>
+      </c>
+      <c r="E2" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="F2" s="13">
+        <f>E2*2</f>
+        <v>15</v>
+      </c>
+      <c r="G2" s="15">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="I2" s="16"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="44"/>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6">
+        <f>(12054.85*3467)</f>
+        <v>41794164.950000003</v>
+      </c>
+      <c r="D3" s="14">
+        <f t="shared" ref="D3:D12" si="0">C3*1.1 + C3*0.19</f>
+        <v>53914472.785500005</v>
+      </c>
+      <c r="E3" s="31">
+        <f>E2*C3/C2</f>
+        <v>18.082274999999999</v>
+      </c>
+      <c r="F3" s="31">
+        <f>E3*1</f>
+        <v>18.082274999999999</v>
+      </c>
+      <c r="G3" s="11">
+        <v>6.2E-2</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="17"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="44"/>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6">
+        <f>300*3467</f>
+        <v>1040100</v>
+      </c>
+      <c r="D4" s="14">
+        <f>C4*1.1 + C4*0.19 + 1600000</f>
+        <v>2941729</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F4" s="30">
+        <f>E4*3+5*0.7457*20/60</f>
+        <v>7.842833333333334</v>
+      </c>
+      <c r="G4" s="11">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="44"/>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="6">
+        <f>1800*3467</f>
+        <v>6240600</v>
+      </c>
+      <c r="D5" s="14">
+        <f>C5*1.1 + C5*0.19 + D4</f>
+        <v>10992103</v>
+      </c>
+      <c r="E5" s="2">
+        <f>7.5</f>
+        <v>7.5</v>
+      </c>
+      <c r="F5" s="30">
+        <f>F4+E5*0.5</f>
+        <v>11.592833333333335</v>
+      </c>
+      <c r="G5" s="11">
+        <v>2.7E-2</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="44"/>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="14">
+        <f>1620000+D4</f>
+        <v>4561729</v>
+      </c>
+      <c r="E6" s="30">
+        <f>3*0.7457</f>
+        <v>2.2370999999999999</v>
+      </c>
+      <c r="F6" s="30">
+        <f>E6*1+F4</f>
+        <v>10.079933333333333</v>
+      </c>
+      <c r="G6" s="11">
+        <v>2.7E-2</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="45"/>
+      <c r="B7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="14">
+        <f>2500000+D4</f>
+        <v>5441729</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="18">
+        <v>20.8</v>
+      </c>
+      <c r="G7" s="19">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="20"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="B8" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C8" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="14">
+        <f>1594000</f>
+        <v>1594000</v>
+      </c>
+      <c r="E8" s="37">
+        <f>2*0.7457</f>
+        <v>1.4914000000000001</v>
+      </c>
+      <c r="F8" s="37">
+        <f>E8*1</f>
+        <v>1.4914000000000001</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="16"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="44"/>
+      <c r="B9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="38">
+        <f>8700*48.52</f>
+        <v>422124</v>
+      </c>
+      <c r="D9" s="35">
+        <f>250000+C9*1.1+C9*0-19</f>
+        <v>714317.4</v>
+      </c>
+      <c r="E9" s="29">
+        <f>0.7457</f>
+        <v>0.74570000000000003</v>
+      </c>
+      <c r="F9" s="29">
+        <f>E9*1</f>
+        <v>0.74570000000000003</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="45"/>
+      <c r="B10" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="27">
+        <f>1000*3467</f>
+        <v>3467000</v>
+      </c>
+      <c r="D10" s="14">
+        <f>C10*1.1 + C10*0.19</f>
+        <v>4472430</v>
+      </c>
+      <c r="E10" s="18">
+        <v>1</v>
+      </c>
+      <c r="F10" s="18">
+        <f>E10*1</f>
+        <v>1</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="20"/>
+    </row>
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="39">
+        <f>10000*3457</f>
+        <v>34570000</v>
+      </c>
+      <c r="D11" s="14">
+        <f t="shared" si="0"/>
+        <v>44595300</v>
+      </c>
+      <c r="E11" s="13">
+        <v>15</v>
+      </c>
+      <c r="F11" s="13">
+        <f>E11*1</f>
+        <v>15</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="16"/>
+    </row>
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="45"/>
+      <c r="B12" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="27">
+        <f>C11*1.3</f>
+        <v>44941000</v>
+      </c>
+      <c r="D12" s="14">
+        <f t="shared" si="0"/>
+        <v>57973890.000000007</v>
+      </c>
+      <c r="E12" s="18">
         <v>10</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="6"/>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="6"/>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="6"/>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="6"/>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="6"/>
-      <c r="B9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="6"/>
-      <c r="B10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="6"/>
-      <c r="B12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="F12" s="18">
+        <f>E12*1</f>
+        <v>10</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="18"/>
+      <c r="I12" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -798,58 +1376,303 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F615FEE-6996-4EBB-9B5A-D4EADA31A8DD}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51D51A2-8413-42F7-9B87-6387D1035D8B}">
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C2" s="11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D2" s="9">
+        <v>0</v>
+      </c>
+      <c r="E2" s="9">
+        <v>0</v>
+      </c>
+      <c r="F2" s="9">
+        <v>1.1941056910569077E-2</v>
+      </c>
+      <c r="G2" s="9">
+        <v>0.23010546500479154</v>
+      </c>
+      <c r="H2" s="9">
+        <v>0.12332990750256798</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="2">
+        <v>850</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D3" s="9">
+        <v>8.1967213114772439E-3</v>
+      </c>
+      <c r="E3" s="9">
+        <v>4.0453074433656727E-2</v>
+      </c>
+      <c r="F3" s="9">
+        <v>9.3749999999999931E-2</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0.44103547459252346</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0.30832476875642284</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="2">
+        <v>425</v>
+      </c>
+      <c r="C4" s="11">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="D4" s="9">
+        <v>8.1967213114753787E-2</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0.50970873786407567</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0.33866869918699188</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0.18216682646212617</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0.38026721479958703</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="2">
+        <v>250</v>
+      </c>
+      <c r="C5" s="11">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0.32786885245901515</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.18608414239482188</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.22383130081300817</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.11505273250239577</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.15416238437821142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="2">
+        <v>106</v>
+      </c>
+      <c r="C6" s="11">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.38524590163934191</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.18042071197411047</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.15929878048780485</v>
+      </c>
+      <c r="G6" s="9">
+        <v>9.5877277085352521E-3</v>
+      </c>
+      <c r="H6" s="9">
+        <v>2.0554984583766197E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="2">
+        <v>75</v>
+      </c>
+      <c r="C7" s="11">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.18852459016393466</v>
+      </c>
+      <c r="E7" s="9">
+        <v>6.7152103559868878E-2</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0.13795731707317074</v>
+      </c>
+      <c r="G7" s="9">
+        <v>1.2464046021092556E-2</v>
+      </c>
+      <c r="H7" s="9">
+        <v>3.0832476875614244E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="11">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="D8" s="9">
+        <v>8.1967213114772439E-3</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1.6181229773466369E-2</v>
+      </c>
+      <c r="F8" s="9">
+        <v>3.4552845528455341E-2</v>
+      </c>
+      <c r="G8" s="9">
+        <v>9.5877277085352521E-3</v>
+      </c>
+      <c r="H8" s="9">
+        <v>1.0277492291883098E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="46"/>
+      <c r="D9" s="32">
+        <f>SUMPRODUCT($C$2:$C$8,D2:D8)</f>
+        <v>5.3827868852458972E-2</v>
+      </c>
+      <c r="E9" s="32">
+        <f t="shared" ref="E9:H9" si="0">SUMPRODUCT($C$2:$C$8,E2:E8)</f>
+        <v>4.2643203883495233E-2</v>
+      </c>
+      <c r="F9" s="32">
+        <f t="shared" si="0"/>
+        <v>4.38346036585366E-2</v>
+      </c>
+      <c r="G9" s="32">
+        <f t="shared" si="0"/>
+        <v>2.1855225311601299E-2</v>
+      </c>
+      <c r="H9" s="32">
+        <f t="shared" si="0"/>
+        <v>2.7435765673175926E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B9:C9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F615FEE-6996-4EBB-9B5A-D4EADA31A8DD}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C2" s="6">
+        <v>828116</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -857,12 +1680,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2C6663-7403-42CC-923C-72086978D676}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -872,45 +1695,73 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="B2" s="11">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="2">
-        <v>25</v>
+        <v>32</v>
+      </c>
+      <c r="B3" s="11">
+        <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="B4" s="11">
+        <v>3.6600000000000001E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="B5" s="11">
+        <v>1.8100000000000002E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="B6" s="11">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="42">
+        <v>535</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74C2CB1C-3ABC-4F32-A61C-694DD64E6B66}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Jupyter/Datos.xlsx
+++ b/Jupyter/Datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juand\Desktop\Maestría\Tesis\Etapa II\Informe III\Jupyter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEAAFB8-1487-462D-B4CA-717A11F846FC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB70D0A2-6B7E-4949-9F45-9EB2C811A515}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4300" yWindow="3180" windowWidth="9150" windowHeight="9540" firstSheet="4" activeTab="4" xr2:uid="{1688BDA4-468B-44D4-BFCD-DB3D70F902FC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="4" xr2:uid="{1688BDA4-468B-44D4-BFCD-DB3D70F902FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Cosecha" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="66">
   <si>
     <t>Especie</t>
   </si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t>Tarifa kW-h</t>
+  </si>
+  <si>
+    <t>Tecnólogo</t>
   </si>
 </sst>
 </file>
@@ -1028,7 +1031,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1122,7 +1125,7 @@
         <v>18.082274999999999</v>
       </c>
       <c r="G3" s="11">
-        <v>6.2E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="17"/>
@@ -1638,10 +1641,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F615FEE-6996-4EBB-9B5A-D4EADA31A8DD}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1668,11 +1671,73 @@
         <v>29</v>
       </c>
       <c r="B2" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="6">
-        <v>828116</v>
-      </c>
+        <v>960615</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1392000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C4" s="41"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C5" s="41"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C6" s="41"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C7" s="41"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C8" s="41"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C9" s="41"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C10" s="41"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C11" s="41"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C12" s="41"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C13" s="41"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C14" s="41"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C15" s="41"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C16" s="41"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C17" s="41"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C18" s="41"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C19" s="41"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C20" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1685,7 +1750,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1706,7 +1771,7 @@
         <v>31</v>
       </c>
       <c r="B2" s="11">
-        <v>0.1</v>
+        <v>0.121</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">

--- a/Jupyter/Datos.xlsx
+++ b/Jupyter/Datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juand\Desktop\Maestría\Tesis\Etapa II\Informe III\Jupyter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB70D0A2-6B7E-4949-9F45-9EB2C811A515}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99474CCC-6754-47E9-85EB-F5B2644587F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="4" xr2:uid="{1688BDA4-468B-44D4-BFCD-DB3D70F902FC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1688BDA4-468B-44D4-BFCD-DB3D70F902FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Cosecha" sheetId="1" r:id="rId1"/>
@@ -880,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC70963-8C4E-4A9F-82DA-1A2217A1CDC1}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -997,9 +997,15 @@
       <c r="D3" s="2">
         <v>5800</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="E3" s="2">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2">
+        <v>18500</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.12</v>
+      </c>
       <c r="H3" s="2">
         <v>0.8</v>
       </c>
@@ -1749,7 +1755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2C6663-7403-42CC-923C-72086978D676}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/Jupyter/Datos.xlsx
+++ b/Jupyter/Datos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juand\Desktop\Maestría\Tesis\Etapa II\Informe III\Jupyter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juand\Desktop\Maestría\MSPD_Eco\Jupyter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99474CCC-6754-47E9-85EB-F5B2644587F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F1676F-FAD4-4CB8-B851-2B07C5A0556F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1688BDA4-468B-44D4-BFCD-DB3D70F902FC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{1688BDA4-468B-44D4-BFCD-DB3D70F902FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Cosecha" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
   <si>
     <t>Especie</t>
   </si>
@@ -111,12 +111,6 @@
   </si>
   <si>
     <t>Inversión inicial [COP]</t>
-  </si>
-  <si>
-    <t>Mantenimiento [COP/revisión]</t>
-  </si>
-  <si>
-    <t>Periodicidad [#Rev/año]</t>
   </si>
   <si>
     <t>Formación</t>
@@ -285,7 +279,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -339,13 +333,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -363,7 +357,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -372,13 +366,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -390,7 +384,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -403,66 +397,6 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -488,7 +422,7 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -509,21 +443,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -533,7 +463,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -546,17 +476,17 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -880,24 +810,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC70963-8C4E-4A9F-82DA-1A2217A1CDC1}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.90625" style="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.90625" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.90625" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.90625" style="37" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.08984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.6328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.54296875" style="41" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.54296875" style="37" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.7265625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.54296875" style="41" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.54296875" style="37" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -905,37 +835,37 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="36" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="36" t="s">
         <v>5</v>
       </c>
       <c r="M1" s="3" t="s">
@@ -986,7 +916,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B3" s="6">
         <v>20</v>
@@ -1034,10 +964,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78AC0F7-9757-4BC7-822C-3482E40F7588}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1048,41 +978,33 @@
     <col min="5" max="5" width="12.6328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="22" t="s">
+      <c r="D1" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="43" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="39" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -1106,11 +1028,9 @@
       <c r="G2" s="15">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="16"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="44"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="40"/>
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1122,22 +1042,20 @@
         <f t="shared" ref="D3:D12" si="0">C3*1.1 + C3*0.19</f>
         <v>53914472.785500005</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="27">
         <f>E2*C3/C2</f>
         <v>18.082274999999999</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="27">
         <f>E3*1</f>
         <v>18.082274999999999</v>
       </c>
       <c r="G3" s="11">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="17"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="44"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="40"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1152,18 +1070,16 @@
       <c r="E4" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="26">
         <f>E4*3+5*0.7457*20/60</f>
         <v>7.842833333333334</v>
       </c>
       <c r="G4" s="11">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="17"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="44"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="40"/>
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1179,49 +1095,45 @@
         <f>7.5</f>
         <v>7.5</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="26">
         <f>F4+E5*0.5</f>
         <v>11.592833333333335</v>
       </c>
       <c r="G5" s="11">
         <v>2.7E-2</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="17"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="44"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="40"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="33" t="s">
-        <v>53</v>
+      <c r="C6" s="29" t="s">
+        <v>51</v>
       </c>
       <c r="D6" s="14">
         <f>1620000+D4</f>
         <v>4561729</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="26">
         <f>3*0.7457</f>
         <v>2.2370999999999999</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="26">
         <f>E6*1+F4</f>
         <v>10.079933333333333</v>
       </c>
       <c r="G6" s="11">
         <v>2.7E-2</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="17"/>
-    </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="45"/>
-      <c r="B7" s="18" t="s">
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="41"/>
+      <c r="B7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="34" t="s">
-        <v>53</v>
+      <c r="C7" s="30" t="s">
+        <v>51</v>
       </c>
       <c r="D7" s="14">
         <f>2500000+D4</f>
@@ -1230,76 +1142,70 @@
       <c r="E7">
         <v>2</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="16">
         <v>20.8</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="17">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="20"/>
-    </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="43" t="s">
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="36" t="s">
-        <v>53</v>
+      <c r="C8" s="32" t="s">
+        <v>51</v>
       </c>
       <c r="D8" s="14">
         <f>1594000</f>
         <v>1594000</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="33">
         <f>2*0.7457</f>
         <v>1.4914000000000001</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="33">
         <f>E8*1</f>
         <v>1.4914000000000001</v>
       </c>
-      <c r="G8" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="16"/>
-    </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="44"/>
+      <c r="G8" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="40"/>
       <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="34">
         <f>8700*48.52</f>
         <v>422124</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="31">
         <f>250000+C9*1.1+C9*0-19</f>
         <v>714317.4</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="25">
         <f>0.7457</f>
         <v>0.74570000000000003</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="25">
         <f>E9*1</f>
         <v>0.74570000000000003</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="17"/>
-    </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="45"/>
-      <c r="B10" s="26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="41"/>
+      <c r="B10" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="23">
         <f>1000*3467</f>
         <v>3467000</v>
       </c>
@@ -1307,27 +1213,25 @@
         <f>C10*1.1 + C10*0.19</f>
         <v>4472430</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="16">
         <v>1</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="16">
         <f>E10*1</f>
         <v>1</v>
       </c>
-      <c r="G10" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="20"/>
-    </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="43" t="s">
+      <c r="G10" s="24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="35">
         <f>10000*3457</f>
         <v>34570000</v>
       </c>
@@ -1342,18 +1246,16 @@
         <f>E11*1</f>
         <v>15</v>
       </c>
-      <c r="G11" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="16"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="45"/>
-      <c r="B12" s="26" t="s">
+      <c r="G11" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="41"/>
+      <c r="B12" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="23">
         <f>C11*1.3</f>
         <v>44941000</v>
       </c>
@@ -1361,18 +1263,16 @@
         <f t="shared" si="0"/>
         <v>57973890.000000007</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="16">
         <v>10</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="16">
         <f>E12*1</f>
         <v>10</v>
       </c>
-      <c r="G12" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="20"/>
+      <c r="G12" s="24" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1401,10 +1301,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>4</v>
@@ -1413,21 +1313,21 @@
         <v>9</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2">
         <v>2000</v>
@@ -1453,7 +1353,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" s="2">
         <v>850</v>
@@ -1479,7 +1379,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2">
         <v>425</v>
@@ -1505,7 +1405,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2">
         <v>250</v>
@@ -1531,7 +1431,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2">
         <v>106</v>
@@ -1557,7 +1457,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B7" s="2">
         <v>75</v>
@@ -1583,10 +1483,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C8" s="11">
         <v>6.7000000000000004E-2</v>
@@ -1609,29 +1509,29 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="32">
+        <v>52</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="42"/>
+      <c r="D9" s="28">
         <f>SUMPRODUCT($C$2:$C$8,D2:D8)</f>
         <v>5.3827868852458972E-2</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="28">
         <f t="shared" ref="E9:H9" si="0">SUMPRODUCT($C$2:$C$8,E2:E8)</f>
         <v>4.2643203883495233E-2</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="28">
         <f t="shared" si="0"/>
         <v>4.38346036585366E-2</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="28">
         <f t="shared" si="0"/>
         <v>2.1855225311601299E-2</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H9" s="28">
         <f t="shared" si="0"/>
         <v>2.7435765673175926E-2</v>
       </c>
@@ -1663,18 +1563,18 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -1685,7 +1585,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -1695,55 +1595,55 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C4" s="41"/>
+      <c r="C4" s="37"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C5" s="41"/>
+      <c r="C5" s="37"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C6" s="41"/>
+      <c r="C6" s="37"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C7" s="41"/>
+      <c r="C7" s="37"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C8" s="41"/>
+      <c r="C8" s="37"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C9" s="41"/>
+      <c r="C9" s="37"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C10" s="41"/>
+      <c r="C10" s="37"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C11" s="41"/>
+      <c r="C11" s="37"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C12" s="41"/>
+      <c r="C12" s="37"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C13" s="41"/>
+      <c r="C13" s="37"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C14" s="41"/>
+      <c r="C14" s="37"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C15" s="41"/>
+      <c r="C15" s="37"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C16" s="41"/>
+      <c r="C16" s="37"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C17" s="41"/>
+      <c r="C17" s="37"/>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C18" s="41"/>
+      <c r="C18" s="37"/>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C19" s="41"/>
+      <c r="C19" s="37"/>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C20" s="41"/>
+      <c r="C20" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1766,15 +1666,15 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" s="11">
         <v>0.121</v>
@@ -1782,7 +1682,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" s="11">
         <v>0.25</v>
@@ -1790,7 +1690,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" s="11">
         <v>3.6600000000000001E-2</v>
@@ -1798,7 +1698,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" s="11">
         <v>1.8100000000000002E-2</v>
@@ -1806,7 +1706,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B6" s="11">
         <v>0.19</v>
@@ -1814,9 +1714,9 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="42">
+        <v>62</v>
+      </c>
+      <c r="B7" s="38">
         <v>535</v>
       </c>
     </row>
